--- a/BackTest/2020-01-19 BackTest TRV.xlsx
+++ b/BackTest/2020-01-19 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-764024.3346525716</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-845743.1289817016</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>464508.3643650273</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>607090.0805363844</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>106867.6954363844</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-128380.8412636156</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-148592.3295636156</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-94445.39486361564</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-129143.0540636157</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-196749.2473515137</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-190281.7438515137</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-197813.2465515138</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-217883.3501515138</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-162891.5771515138</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-257700.5762279064</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-270689.3735279064</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-23212.95819743758</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-13778.19539743758</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-368313.1956974376</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-369059.1956974376</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-367116.9583974376</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-390773.4383974376</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-145005.9801974376</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-145005.9801974376</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-100160.6079974376</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-200773.0950974376</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>3870466.132433379</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>4806771.022780043</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>5027766.189941625</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>4550474.233741625</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>4519774.696141625</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>4385338.967541625</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>4461893.265741625</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>4367157.904541625</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>5753350.273008107</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>7190980.836508107</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>6571018.551238783</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>7124354.986483292</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>7927835.021983292</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>8320901.641783291</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>7713563.446883291</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>7941028.453214341</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>7731546.813414341</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>8223071.222814341</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>8166339.220014341</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>6788900.572514341</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>6699333.629514341</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>6553200.465014341</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>6661548.395414341</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>6613602.742814342</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>6548490.65220846</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>6495754.362908459</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>6328313.699008459</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>5824748.563987125</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>6111273.296587124</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>6049575.035887124</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>6081717.214387124</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>6187860.979420961</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>5937039.425020961</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>5692411.459355733</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>5761721.954655733</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>5871072.382355733</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>5875100.477255733</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>6679914.443055733</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>7037333.618855733</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>6681357.216155734</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>6602071.839955734</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>6473988.280219944</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>5685241.31700404</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>5516417.49920404</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>5516417.49920404</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>5455249.670504039</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>5231318.763504039</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>5507063.72542288</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>5165269.394422879</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>5369225.04552288</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>5043010.210066208</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>4986917.017566208</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>4986917.017566208</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>5158824.24310116</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>5071499.71980116</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>4953148.688601159</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4940829.849501159</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4967826.928701159</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>4967826.928701159</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>4968066.792201159</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>4922461.872526624</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>5150779.04845209</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>5150779.04845209</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>5284471.936452091</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>5170035.345452091</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>5259066.18115209</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>5334711.878089705</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>5076807.474789706</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>4874309.388389706</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>4794398.371989706</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>4606164.413489706</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>4856736.648589706</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>4731900.568309955</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>4725062.227509955</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>4783830.305609955</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>4265018.373209954</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>4138370.701909954</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>4138370.701909954</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>4566723.388109954</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>4856650.242553649</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>4856650.242553649</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>4856650.242553649</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>4834143.260918871</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>4582343.588618872</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>4618499.760418871</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>4348240.293718872</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>4281054.239218872</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>3956144.261218872</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>3828201.893318872</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>3820567.988532385</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>3949214.543032385</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>3755528.462332386</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>3994212.070297321</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>3209656.037097321</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>3320716.618497321</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>3467742.164297321</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -28006,11 +28006,17 @@
         <v>-7978028.851950427</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>12.52</v>
+      </c>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28039,11 +28045,17 @@
         <v>-7937871.603550427</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>12.62</v>
+      </c>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28072,11 +28084,17 @@
         <v>-8260732.229250426</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>12.71</v>
+      </c>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28105,11 +28123,17 @@
         <v>-8715988.688550426</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28138,11 +28162,17 @@
         <v>-8776686.091750426</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>12.4</v>
+      </c>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28171,11 +28201,17 @@
         <v>-8671904.787650427</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>12.36</v>
+      </c>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28204,11 +28240,17 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>12.37</v>
+      </c>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28237,11 +28279,17 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>12.38</v>
+      </c>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28270,11 +28318,17 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>12.38</v>
+      </c>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28303,15 +28357,17 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>12.38</v>
       </c>
-      <c r="J846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,17 +28396,15 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>12.38</v>
       </c>
-      <c r="J847" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L847" t="n">
@@ -28381,17 +28435,15 @@
         <v>-8543111.936950427</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>12.38</v>
       </c>
-      <c r="J848" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L848" t="n">
@@ -28422,15 +28474,17 @@
         <v>-8543071.936950427</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>12.38</v>
       </c>
-      <c r="J849" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28459,17 +28513,15 @@
         <v>-8575508.810550427</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>12.54</v>
       </c>
-      <c r="J850" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L850" t="n">
@@ -28500,14 +28552,12 @@
         <v>-8575508.810550427</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>12.36</v>
       </c>
-      <c r="J851" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28541,14 +28591,12 @@
         <v>-8646814.271750428</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>12.36</v>
       </c>
-      <c r="J852" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28582,14 +28630,12 @@
         <v>-9165279.991750428</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>12.33</v>
       </c>
-      <c r="J853" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28623,14 +28669,12 @@
         <v>-9135442.227550428</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>12.21</v>
       </c>
-      <c r="J854" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28664,14 +28708,12 @@
         <v>-8928199.253550429</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>12.29</v>
       </c>
-      <c r="J855" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28705,14 +28747,12 @@
         <v>-8844372.082650429</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>12.4</v>
       </c>
-      <c r="J856" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28746,14 +28786,12 @@
         <v>-8844332.082650429</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>12.58</v>
       </c>
-      <c r="J857" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28787,14 +28825,12 @@
         <v>-8844522.571850428</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>12.59</v>
       </c>
-      <c r="J858" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28828,14 +28864,12 @@
         <v>-8844482.571850428</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>12.43</v>
       </c>
-      <c r="J859" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28869,14 +28903,12 @@
         <v>-9034710.768650427</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>12.59</v>
       </c>
-      <c r="J860" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28910,12 +28942,12 @@
         <v>-8574763.103250427</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28949,12 +28981,12 @@
         <v>-8649656.582550427</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28988,12 +29020,12 @@
         <v>-8649656.582550427</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29027,12 +29059,12 @@
         <v>-8649903.182550427</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29066,14 +29098,12 @@
         <v>-8556147.367750427</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>12.45</v>
       </c>
-      <c r="J865" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29107,14 +29137,12 @@
         <v>-8385763.025550427</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>12.7</v>
       </c>
-      <c r="J866" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29148,12 +29176,12 @@
         <v>-8921273.140450427</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29187,14 +29215,12 @@
         <v>-8921233.140450427</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I868" t="n">
         <v>12.51</v>
       </c>
-      <c r="J868" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29228,12 +29254,12 @@
         <v>-8921233.140450427</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29267,12 +29293,12 @@
         <v>-8856542.209850427</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29306,12 +29332,12 @@
         <v>-8856542.209850427</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29345,12 +29371,12 @@
         <v>-8839187.688850427</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29384,12 +29410,12 @@
         <v>-8839187.688850427</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29423,12 +29449,12 @@
         <v>-8839087.688850427</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29462,12 +29488,12 @@
         <v>-8839087.688850427</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29501,12 +29527,12 @@
         <v>-8849707.644650428</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29543,9 +29569,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29579,12 +29603,12 @@
         <v>-8909807.644650428</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29618,12 +29642,12 @@
         <v>-8792109.301050428</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29657,12 +29681,12 @@
         <v>-8792109.301050428</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29699,9 +29723,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29738,9 +29760,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29777,9 +29797,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29816,9 +29834,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29855,9 +29871,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29894,9 +29908,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29930,12 +29942,12 @@
         <v>-8668043.836650429</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29969,12 +29981,12 @@
         <v>-8667975.836650429</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30011,9 +30023,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30047,12 +30057,12 @@
         <v>-8681894.213950429</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30086,12 +30096,12 @@
         <v>-8689009.98205043</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30125,12 +30135,12 @@
         <v>-8704163.53115043</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30164,12 +30174,12 @@
         <v>-8826180.22975043</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30203,12 +30213,12 @@
         <v>-8826180.22975043</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30242,12 +30252,12 @@
         <v>-8922679.315950431</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30281,12 +30291,12 @@
         <v>-8922639.315950431</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30320,12 +30330,12 @@
         <v>-8922688.499950431</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30359,12 +30369,12 @@
         <v>-8922688.499950431</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30398,12 +30408,12 @@
         <v>-8922639.380050432</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30437,12 +30447,12 @@
         <v>-8937995.673450433</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30479,9 +30489,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30515,12 +30523,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30554,12 +30562,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30593,12 +30601,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30632,12 +30640,12 @@
         <v>-8890569.673450433</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30674,9 +30682,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30710,12 +30716,12 @@
         <v>-8793057.931850433</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30749,12 +30755,12 @@
         <v>-8725126.931850433</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30788,12 +30794,12 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30827,12 +30833,12 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30866,12 +30872,12 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30905,12 +30911,12 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30944,12 +30950,12 @@
         <v>-8648903.786650434</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30983,12 +30989,12 @@
         <v>-8648033.787050433</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31022,12 +31028,12 @@
         <v>-8899003.210950434</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31061,12 +31067,12 @@
         <v>-8899123.210950434</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>13</v>
+      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31100,12 +31106,12 @@
         <v>-8913192.735850435</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31139,12 +31145,12 @@
         <v>-8853450.735850435</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31178,12 +31184,12 @@
         <v>-8853395.935350435</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31217,12 +31223,12 @@
         <v>-8925311.891050436</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31256,12 +31262,12 @@
         <v>-9012586.412750436</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31295,12 +31301,12 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31334,12 +31340,12 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31373,12 +31379,12 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31412,12 +31418,12 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>13</v>
+      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31451,12 +31457,12 @@
         <v>-8827436.050550437</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>13</v>
+      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31490,12 +31496,12 @@
         <v>-8818422.950750437</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31529,12 +31535,12 @@
         <v>-8818593.890850436</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31571,9 +31577,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31610,9 +31614,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31649,9 +31651,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31688,9 +31688,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31727,9 +31725,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31766,9 +31762,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31802,12 +31796,12 @@
         <v>-8724912.694750436</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31841,12 +31835,12 @@
         <v>-8724912.694750436</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31883,9 +31877,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31922,9 +31914,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31961,9 +31951,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32000,9 +31988,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32036,12 +32022,12 @@
         <v>-8422094.136250434</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32075,12 +32061,12 @@
         <v>-8407569.171450434</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32114,12 +32100,12 @@
         <v>-8407569.171450434</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32153,12 +32139,12 @@
         <v>-8201784.197850434</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32192,12 +32178,12 @@
         <v>-8201584.197850434</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32234,9 +32220,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32270,12 +32254,12 @@
         <v>-8201584.197850434</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32312,9 +32296,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32351,9 +32333,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32390,9 +32370,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32429,9 +32407,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32468,9 +32444,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32507,9 +32481,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32543,12 +32515,12 @@
         <v>-8537638.201050434</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>13</v>
+      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32582,12 +32554,12 @@
         <v>-8528613.035450434</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32621,12 +32593,12 @@
         <v>-8482317.298150435</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
-      <c r="J956" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32660,12 +32632,12 @@
         <v>-8480792.478750436</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32699,12 +32671,12 @@
         <v>-8576534.898450436</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>13</v>
+      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32738,12 +32710,12 @@
         <v>-8615198.806950437</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32777,12 +32749,12 @@
         <v>-8586209.010550437</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32816,12 +32788,12 @@
         <v>-8586209.010550437</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>13</v>
+      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32855,12 +32827,12 @@
         <v>-8636023.010550437</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>13</v>
+      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32894,12 +32866,12 @@
         <v>-8375339.010550437</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32936,9 +32908,7 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32975,9 +32945,7 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33014,9 +32982,7 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33053,9 +33019,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33092,9 +33056,7 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33131,9 +33093,7 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33170,9 +33130,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33209,9 +33167,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33248,9 +33204,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33287,9 +33241,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33326,9 +33278,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33365,9 +33315,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33404,9 +33352,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33443,9 +33389,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33482,9 +33426,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33521,9 +33463,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33560,9 +33500,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33599,9 +33537,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33638,9 +33574,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33677,9 +33611,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33716,9 +33648,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33755,9 +33685,7 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33794,9 +33722,7 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33833,9 +33759,7 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33869,12 +33793,12 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33908,12 +33832,12 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33947,12 +33871,12 @@
         <v>-10641521.73096756</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33986,12 +33910,12 @@
         <v>-10654077.45576756</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34025,12 +33949,12 @@
         <v>-10654077.45576756</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34064,12 +33988,12 @@
         <v>-10668255.88056756</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34103,12 +34027,12 @@
         <v>-10578263.07536756</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34142,12 +34066,12 @@
         <v>-10578263.07536756</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34181,12 +34105,12 @@
         <v>-10580548.79476756</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34220,12 +34144,12 @@
         <v>-10819190.26436756</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34259,12 +34183,12 @@
         <v>-10826641.84696756</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34298,12 +34222,12 @@
         <v>-10747490.06756756</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34337,12 +34261,12 @@
         <v>-10758509.18486756</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34376,12 +34300,12 @@
         <v>-11045577.91246756</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34415,12 +34339,12 @@
         <v>-11032936.88596756</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34454,12 +34378,12 @@
         <v>-11096431.23166756</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34493,12 +34417,12 @@
         <v>-11163097.23166756</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34532,12 +34456,12 @@
         <v>-11134800.52266756</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34571,12 +34495,12 @@
         <v>-11195157.73146756</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34610,14 +34534,12 @@
         <v>-11195157.73146756</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1007" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1007" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34651,12 +34573,12 @@
         <v>-11195157.73146756</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34690,12 +34612,12 @@
         <v>-11196157.73146756</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>12.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34729,14 +34651,12 @@
         <v>-11254237.54006756</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1010" t="n">
         <v>12.47</v>
       </c>
-      <c r="J1010" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34770,14 +34690,12 @@
         <v>-11226696.26446756</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1011" t="n">
         <v>12.46</v>
       </c>
-      <c r="J1011" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34811,14 +34729,12 @@
         <v>-11340463.14166756</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1012" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1012" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34852,14 +34768,12 @@
         <v>-11340463.14166756</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1013" t="n">
         <v>12.47</v>
       </c>
-      <c r="J1013" t="n">
-        <v>12.38</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34871,6 +34785,6 @@
       <c r="M1013" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest TRV.xlsx
+++ b/BackTest/2020-01-19 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7183,7 +7183,7 @@
         <v>-513779.9025108546</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>246547.6608650273</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>464508.3643650273</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>607090.0805363844</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>106867.6954363844</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-128380.8412636156</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-148592.3295636156</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-94445.39486361564</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-129143.0540636157</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-196749.2473515137</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-145971.7031515137</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-305804.2959515137</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-180300.0270515138</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-190281.7438515137</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-197813.2465515138</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-427501.1260515138</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-374667.1250515138</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-374793.6810515138</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-217883.3501515138</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-162539.9810515138</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-248451.0487279064</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-257700.5762279064</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-361913.8579279064</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-361991.8579279064</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-268293.3955279064</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-270689.3735279064</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-23212.95819743758</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-13778.19539743758</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-368313.1956974376</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-369059.1956974376</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>187027.2133416251</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>309199.6267416251</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>456833.3581416251</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1908736.615841625</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>3073562.177741625</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>8223071.222814341</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>8166339.220014341</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>6788900.572514341</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>6699333.629514341</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>6553200.465014341</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>6661548.395414341</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>6613602.742814342</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>6548490.65220846</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>6495754.362908459</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>6328313.699008459</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>5824748.563987125</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>6111273.296587124</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>6049575.035887124</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>6081717.214387124</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>6187860.979420961</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>5937039.425020961</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>5692411.459355733</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>5761721.954655733</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>5871072.382355733</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>5875100.477255733</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>6679914.443055733</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>7037333.618855733</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>6681357.216155734</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>6602071.839955734</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>6473988.280219944</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>5685241.31700404</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>5516417.49920404</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>5516417.49920404</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>5455249.670504039</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>5231318.763504039</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>5507063.72542288</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>5165269.394422879</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>5369225.04552288</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>5043010.210066208</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>4986917.017566208</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>4986917.017566208</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>5158824.24310116</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>5071499.71980116</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>4953148.688601159</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>4940829.849501159</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>4967826.928701159</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>4967826.928701159</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>4968066.792201159</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>5150779.04845209</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>5284471.936452091</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>5170035.345452091</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>5259066.18115209</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>5334711.878089705</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>5222989.377989706</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>5076807.474789706</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>4874309.388389706</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>4794398.371989706</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>4606164.413489706</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>4856736.648589706</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>4731900.568309955</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>4725062.227509955</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>4783830.305609955</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>4265018.373209954</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>4138370.701909954</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>4138370.701909954</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>4856650.242553649</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>4856650.242553649</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>4837146.497018872</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -28006,524 +28006,452 @@
         <v>-7978028.851950427</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>12.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="C838" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="D838" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="E838" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="F838" t="n">
+        <v>40157.2484</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-7937871.603550427</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C839" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D839" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E839" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F839" t="n">
+        <v>322860.6257</v>
+      </c>
+      <c r="G839" t="n">
+        <v>-8260732.229250426</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="C840" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D840" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="E840" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="F840" t="n">
+        <v>455256.4593</v>
+      </c>
+      <c r="G840" t="n">
+        <v>-8715988.688550426</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C841" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D841" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="E841" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F841" t="n">
+        <v>60697.4032</v>
+      </c>
+      <c r="G841" t="n">
+        <v>-8776686.091750426</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C842" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D842" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E842" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F842" t="n">
+        <v>104781.3041</v>
+      </c>
+      <c r="G842" t="n">
+        <v>-8671904.787650427</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C843" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D843" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E843" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F843" t="n">
+        <v>128792.8507</v>
+      </c>
+      <c r="G843" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="C844" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D844" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="E844" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F844" t="n">
+        <v>30710.9236</v>
+      </c>
+      <c r="G844" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H844" t="n">
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C845" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D845" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E845" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F845" t="n">
+        <v>59629.8959</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C846" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D846" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E846" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F846" t="n">
+        <v>650.0841</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C847" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D847" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E847" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F847" t="n">
+        <v>53580.0166</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C848" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D848" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E848" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="F848" t="n">
+        <v>3012.2525</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-8543111.936950427</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C849" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="D849" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="E849" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F849" t="n">
+        <v>40</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-8543071.936950427</v>
+      </c>
+      <c r="H849" t="n">
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="J849" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="C850" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D850" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="E850" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F850" t="n">
+        <v>32436.8736</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-8575508.810550427</v>
+      </c>
+      <c r="H850" t="n">
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="J850" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="K850" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="C838" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="D838" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="E838" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="F838" t="n">
-        <v>40157.2484</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-7937871.603550427</v>
-      </c>
-      <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C839" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D839" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E839" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F839" t="n">
-        <v>322860.6257</v>
-      </c>
-      <c r="G839" t="n">
-        <v>-8260732.229250426</v>
-      </c>
-      <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="C840" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D840" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="E840" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F840" t="n">
-        <v>455256.4593</v>
-      </c>
-      <c r="G840" t="n">
-        <v>-8715988.688550426</v>
-      </c>
-      <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C841" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D841" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E841" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F841" t="n">
-        <v>60697.4032</v>
-      </c>
-      <c r="G841" t="n">
-        <v>-8776686.091750426</v>
-      </c>
-      <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C842" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="D842" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E842" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="F842" t="n">
-        <v>104781.3041</v>
-      </c>
-      <c r="G842" t="n">
-        <v>-8671904.787650427</v>
-      </c>
-      <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C843" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D843" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E843" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F843" t="n">
-        <v>128792.8507</v>
-      </c>
-      <c r="G843" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="C844" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D844" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="E844" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F844" t="n">
-        <v>30710.9236</v>
-      </c>
-      <c r="G844" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C845" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D845" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E845" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F845" t="n">
-        <v>59629.8959</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F846" t="n">
-        <v>650.0841</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C847" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D847" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E847" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F847" t="n">
-        <v>53580.0166</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C848" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="D848" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E848" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F848" t="n">
-        <v>3012.2525</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-8543111.936950427</v>
-      </c>
-      <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="C849" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="D849" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="E849" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F849" t="n">
-        <v>40</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-8543071.936950427</v>
-      </c>
-      <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C850" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="D850" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="E850" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F850" t="n">
-        <v>32436.8736</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-8575508.810550427</v>
-      </c>
-      <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28552,12 +28480,12 @@
         <v>-8575508.810550427</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="J851" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28596,7 +28524,9 @@
       <c r="I852" t="n">
         <v>12.36</v>
       </c>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28635,7 +28565,9 @@
       <c r="I853" t="n">
         <v>12.33</v>
       </c>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28674,7 +28606,9 @@
       <c r="I854" t="n">
         <v>12.21</v>
       </c>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28713,7 +28647,9 @@
       <c r="I855" t="n">
         <v>12.29</v>
       </c>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28752,7 +28688,9 @@
       <c r="I856" t="n">
         <v>12.4</v>
       </c>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28791,7 +28729,9 @@
       <c r="I857" t="n">
         <v>12.58</v>
       </c>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28825,12 +28765,12 @@
         <v>-8844522.571850428</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="J858" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28869,7 +28809,9 @@
       <c r="I859" t="n">
         <v>12.43</v>
       </c>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28903,12 +28845,12 @@
         <v>-9034710.768650427</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="J860" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28942,12 +28884,12 @@
         <v>-8574763.103250427</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="J861" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28981,12 +28923,12 @@
         <v>-8649656.582550427</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J862" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29020,12 +28962,12 @@
         <v>-8649656.582550427</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J863" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29059,12 +29001,12 @@
         <v>-8649903.182550427</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J864" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29098,12 +29040,12 @@
         <v>-8556147.367750427</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="J865" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29137,12 +29079,12 @@
         <v>-8385763.025550427</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J866" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29176,12 +29118,12 @@
         <v>-8921273.140450427</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J867" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29215,12 +29157,12 @@
         <v>-8921233.140450427</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="J868" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29254,12 +29196,12 @@
         <v>-8921233.140450427</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J869" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29293,12 +29235,12 @@
         <v>-8856542.209850427</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J870" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29332,12 +29274,12 @@
         <v>-8856542.209850427</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J871" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29371,12 +29313,12 @@
         <v>-8839187.688850427</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J872" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29410,12 +29352,12 @@
         <v>-8839187.688850427</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="J873" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29449,12 +29391,12 @@
         <v>-8839087.688850427</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="J874" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29488,12 +29430,12 @@
         <v>-8839087.688850427</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J875" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29527,12 +29469,12 @@
         <v>-8849707.644650428</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J876" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29569,7 +29511,9 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29603,12 +29547,12 @@
         <v>-8909807.644650428</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J878" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29642,12 +29586,12 @@
         <v>-8792109.301050428</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J879" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29681,12 +29625,12 @@
         <v>-8792109.301050428</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J880" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29723,7 +29667,9 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29760,7 +29706,9 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29797,7 +29745,9 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29834,7 +29784,9 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29871,7 +29823,9 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29908,7 +29862,9 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29942,12 +29898,12 @@
         <v>-8668043.836650429</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="J887" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29981,12 +29937,12 @@
         <v>-8667975.836650429</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="J888" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30023,7 +29979,9 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30057,12 +30015,12 @@
         <v>-8681894.213950429</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J890" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30096,12 +30054,12 @@
         <v>-8689009.98205043</v>
       </c>
       <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J891" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30135,12 +30093,12 @@
         <v>-8704163.53115043</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="J892" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30174,12 +30132,12 @@
         <v>-8826180.22975043</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="J893" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30213,12 +30171,12 @@
         <v>-8826180.22975043</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J894" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30252,12 +30210,12 @@
         <v>-8922679.315950431</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J895" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30296,7 +30254,9 @@
       <c r="I896" t="n">
         <v>12.72</v>
       </c>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30330,12 +30290,12 @@
         <v>-8922688.499950431</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J897" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30369,12 +30329,12 @@
         <v>-8922688.499950431</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="J898" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30413,7 +30373,9 @@
       <c r="I899" t="n">
         <v>12.72</v>
       </c>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30447,12 +30409,12 @@
         <v>-8937995.673450433</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J900" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30486,10 +30448,14 @@
         <v>-8937995.673450433</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="J901" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30523,12 +30489,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="J902" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30562,12 +30528,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="J903" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30601,12 +30567,12 @@
         <v>-8937955.673450433</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="J904" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30645,7 +30611,9 @@
       <c r="I905" t="n">
         <v>12.84</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30682,7 +30650,9 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30721,7 +30691,9 @@
       <c r="I907" t="n">
         <v>12.85</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30755,12 +30727,12 @@
         <v>-8725126.931850433</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="J908" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30799,7 +30771,9 @@
       <c r="I909" t="n">
         <v>12.87</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30833,12 +30807,12 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="J910" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30877,7 +30851,9 @@
       <c r="I911" t="n">
         <v>12.94</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30916,7 +30892,9 @@
       <c r="I912" t="n">
         <v>12.94</v>
       </c>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30955,7 +30933,9 @@
       <c r="I913" t="n">
         <v>12.94</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30989,12 +30969,12 @@
         <v>-8648033.787050433</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="J914" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31028,12 +31008,12 @@
         <v>-8899003.210950434</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="J915" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31067,12 +31047,12 @@
         <v>-8899123.210950434</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>13</v>
-      </c>
-      <c r="J916" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31111,7 +31091,9 @@
       <c r="I917" t="n">
         <v>12.97</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31150,7 +31132,9 @@
       <c r="I918" t="n">
         <v>12.73</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31189,7 +31173,9 @@
       <c r="I919" t="n">
         <v>12.94</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31223,12 +31209,12 @@
         <v>-8925311.891050436</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="J920" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31267,7 +31253,9 @@
       <c r="I921" t="n">
         <v>12.9</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31306,7 +31294,9 @@
       <c r="I922" t="n">
         <v>12.74</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31345,7 +31335,9 @@
       <c r="I923" t="n">
         <v>12.98</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31384,7 +31376,9 @@
       <c r="I924" t="n">
         <v>12.98</v>
       </c>
-      <c r="J924" t="inlineStr"/>
+      <c r="J924" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31423,7 +31417,9 @@
       <c r="I925" t="n">
         <v>13</v>
       </c>
-      <c r="J925" t="inlineStr"/>
+      <c r="J925" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31462,7 +31458,9 @@
       <c r="I926" t="n">
         <v>13</v>
       </c>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31496,12 +31494,12 @@
         <v>-8818422.950750437</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="J927" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31535,12 +31533,12 @@
         <v>-8818593.890850436</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="J928" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31577,7 +31575,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31614,7 +31614,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31651,7 +31653,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31688,7 +31692,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31725,7 +31731,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31762,7 +31770,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31796,12 +31806,12 @@
         <v>-8724912.694750436</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="J935" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31835,12 +31845,12 @@
         <v>-8724912.694750436</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J936" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31877,7 +31887,9 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31914,7 +31926,9 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31951,7 +31965,9 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31988,7 +32004,9 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32022,12 +32040,12 @@
         <v>-8422094.136250434</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
-      </c>
-      <c r="I941" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J941" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32061,12 +32079,12 @@
         <v>-8407569.171450434</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="J942" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32100,12 +32118,12 @@
         <v>-8407569.171450434</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J943" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32139,12 +32157,12 @@
         <v>-8201784.197850434</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="J944" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32178,12 +32196,12 @@
         <v>-8201584.197850434</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="J945" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32220,7 +32238,9 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32254,12 +32274,12 @@
         <v>-8201584.197850434</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="J947" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32296,7 +32316,9 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32333,7 +32355,9 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32370,7 +32394,9 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32407,7 +32433,9 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32444,7 +32472,9 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32481,7 +32511,9 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32515,12 +32547,12 @@
         <v>-8537638.201050434</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>13</v>
-      </c>
-      <c r="J954" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32554,12 +32586,12 @@
         <v>-8528613.035450434</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J955" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32593,12 +32625,12 @@
         <v>-8482317.298150435</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="J956" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32632,12 +32664,12 @@
         <v>-8480792.478750436</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J957" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32671,12 +32703,12 @@
         <v>-8576534.898450436</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>13</v>
-      </c>
-      <c r="J958" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32710,12 +32742,12 @@
         <v>-8615198.806950437</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="J959" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32749,12 +32781,12 @@
         <v>-8586209.010550437</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="J960" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32788,12 +32820,12 @@
         <v>-8586209.010550437</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>13</v>
-      </c>
-      <c r="J961" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32827,12 +32859,12 @@
         <v>-8636023.010550437</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>13</v>
-      </c>
-      <c r="J962" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32866,12 +32898,12 @@
         <v>-8375339.010550437</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="J963" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32908,7 +32940,9 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32945,7 +32979,9 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32982,7 +33018,9 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33019,7 +33057,9 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33056,7 +33096,9 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33093,7 +33135,9 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33130,7 +33174,9 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33167,7 +33213,9 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33204,7 +33252,9 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33241,7 +33291,9 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33278,7 +33330,9 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33315,7 +33369,9 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33352,7 +33408,9 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33389,7 +33447,9 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33426,7 +33486,9 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33463,7 +33525,9 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33500,7 +33564,9 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33537,7 +33603,9 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33574,7 +33642,9 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33611,7 +33681,9 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33648,7 +33720,9 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
+      <c r="J984" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33685,7 +33759,9 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
+      <c r="J985" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33722,7 +33798,9 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
+      <c r="J986" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33756,10 +33834,14 @@
         <v>-10534533.36875044</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="J987" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33798,7 +33880,9 @@
       <c r="I988" t="n">
         <v>12.64</v>
       </c>
-      <c r="J988" t="inlineStr"/>
+      <c r="J988" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33837,7 +33921,9 @@
       <c r="I989" t="n">
         <v>12.62</v>
       </c>
-      <c r="J989" t="inlineStr"/>
+      <c r="J989" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33876,7 +33962,9 @@
       <c r="I990" t="n">
         <v>12.62</v>
       </c>
-      <c r="J990" t="inlineStr"/>
+      <c r="J990" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33910,12 +33998,12 @@
         <v>-10654077.45576756</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="J991" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33954,7 +34042,9 @@
       <c r="I992" t="n">
         <v>12.6</v>
       </c>
-      <c r="J992" t="inlineStr"/>
+      <c r="J992" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33993,7 +34083,9 @@
       <c r="I993" t="n">
         <v>12.6</v>
       </c>
-      <c r="J993" t="inlineStr"/>
+      <c r="J993" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34032,7 +34124,9 @@
       <c r="I994" t="n">
         <v>12.55</v>
       </c>
-      <c r="J994" t="inlineStr"/>
+      <c r="J994" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34071,7 +34165,9 @@
       <c r="I995" t="n">
         <v>12.85</v>
       </c>
-      <c r="J995" t="inlineStr"/>
+      <c r="J995" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34110,7 +34206,9 @@
       <c r="I996" t="n">
         <v>12.85</v>
       </c>
-      <c r="J996" t="inlineStr"/>
+      <c r="J996" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34149,7 +34247,9 @@
       <c r="I997" t="n">
         <v>12.7</v>
       </c>
-      <c r="J997" t="inlineStr"/>
+      <c r="J997" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34188,7 +34288,9 @@
       <c r="I998" t="n">
         <v>12.56</v>
       </c>
-      <c r="J998" t="inlineStr"/>
+      <c r="J998" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34227,7 +34329,9 @@
       <c r="I999" t="n">
         <v>12.55</v>
       </c>
-      <c r="J999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34266,7 +34370,9 @@
       <c r="I1000" t="n">
         <v>12.57</v>
       </c>
-      <c r="J1000" t="inlineStr"/>
+      <c r="J1000" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34305,7 +34411,9 @@
       <c r="I1001" t="n">
         <v>12.56</v>
       </c>
-      <c r="J1001" t="inlineStr"/>
+      <c r="J1001" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34344,7 +34452,9 @@
       <c r="I1002" t="n">
         <v>12.43</v>
       </c>
-      <c r="J1002" t="inlineStr"/>
+      <c r="J1002" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34383,7 +34493,9 @@
       <c r="I1003" t="n">
         <v>12.6</v>
       </c>
-      <c r="J1003" t="inlineStr"/>
+      <c r="J1003" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34422,7 +34534,9 @@
       <c r="I1004" t="n">
         <v>12.51</v>
       </c>
-      <c r="J1004" t="inlineStr"/>
+      <c r="J1004" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34461,7 +34575,9 @@
       <c r="I1005" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1005" t="inlineStr"/>
+      <c r="J1005" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34500,7 +34616,9 @@
       <c r="I1006" t="n">
         <v>12.51</v>
       </c>
-      <c r="J1006" t="inlineStr"/>
+      <c r="J1006" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34539,7 +34657,9 @@
       <c r="I1007" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1007" t="inlineStr"/>
+      <c r="J1007" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34578,7 +34698,9 @@
       <c r="I1008" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1008" t="inlineStr"/>
+      <c r="J1008" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34617,7 +34739,9 @@
       <c r="I1009" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34656,7 +34780,9 @@
       <c r="I1010" t="n">
         <v>12.47</v>
       </c>
-      <c r="J1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34695,7 +34821,9 @@
       <c r="I1011" t="n">
         <v>12.46</v>
       </c>
-      <c r="J1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34734,7 +34862,9 @@
       <c r="I1012" t="n">
         <v>12.5</v>
       </c>
-      <c r="J1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34773,7 +34903,9 @@
       <c r="I1013" t="n">
         <v>12.47</v>
       </c>
-      <c r="J1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>12.38</v>
+      </c>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34785,6 +34917,6 @@
       <c r="M1013" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>